--- a/app/static/uploads/Materialclass.xlsx
+++ b/app/static/uploads/Materialclass.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10319"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danilo/python/webtools/app/static/uploads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dp/py3/webtools/app/static/settings_xls/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B305BBB7-A690-C94F-9FB8-CA7F50DAEFBB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9360" yWindow="3720" windowWidth="33740" windowHeight="21580" xr2:uid="{72617F22-30CD-5A4D-8F23-3B3DC968BAD8}"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="17480" xr2:uid="{72617F22-30CD-5A4D-8F23-3B3DC968BAD8}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
